--- a/data_quarter/zb/国民经济核算/国内生产总值(不变价).xlsx
+++ b/data_quarter/zb/国民经济核算/国内生产总值(不变价).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,31 @@
           <t>第二产业增加值(不变价)_累计值</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国内生产总值(不变价)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>第一产业增加值(不变价)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>第三产业增加值(不变价)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>第二产业增加值(不变价)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -505,73 +525,109 @@
       <c r="I2" t="n">
         <v>24673.7</v>
       </c>
+      <c r="J2" t="n">
+        <v>53480.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3109.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25697.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24673.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61099.4</v>
+        <v>59216.8</v>
       </c>
       <c r="C3" t="n">
-        <v>173796.6</v>
+        <v>112697.1</v>
       </c>
       <c r="D3" t="n">
-        <v>7112.3</v>
+        <v>4821.1</v>
       </c>
       <c r="E3" t="n">
-        <v>15042.9</v>
+        <v>7930.6</v>
       </c>
       <c r="F3" t="n">
-        <v>24788.3</v>
+        <v>25244.7</v>
       </c>
       <c r="G3" t="n">
-        <v>75730.10000000001</v>
+        <v>50941.9</v>
       </c>
       <c r="H3" t="n">
-        <v>29198.8</v>
+        <v>29151</v>
       </c>
       <c r="I3" t="n">
-        <v>83023.5</v>
+        <v>53824.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>59216.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4821.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25244.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59216.8</v>
+        <v>61099.4</v>
       </c>
       <c r="C4" t="n">
-        <v>112697.1</v>
+        <v>173796.6</v>
       </c>
       <c r="D4" t="n">
-        <v>4821.1</v>
+        <v>7112.3</v>
       </c>
       <c r="E4" t="n">
-        <v>7930.6</v>
+        <v>15042.9</v>
       </c>
       <c r="F4" t="n">
-        <v>25244.7</v>
+        <v>24788.3</v>
       </c>
       <c r="G4" t="n">
-        <v>50941.9</v>
+        <v>75730.10000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>29151</v>
+        <v>29198.8</v>
       </c>
       <c r="I4" t="n">
-        <v>53824.7</v>
+        <v>83023.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>61099.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7112.299999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24788.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29198.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -598,11 +654,23 @@
       <c r="I5" t="n">
         <v>114970</v>
       </c>
+      <c r="J5" t="n">
+        <v>67399.19999999998</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8605.699999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26847.09999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>31946.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -629,73 +697,109 @@
       <c r="I6" t="n">
         <v>27811.4</v>
       </c>
+      <c r="J6" t="n">
+        <v>59640.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3192.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28636.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27811.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66919.39999999999</v>
+        <v>65699.89999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>192259.5</v>
+        <v>125340.1</v>
       </c>
       <c r="D7" t="n">
-        <v>7504.5</v>
+        <v>5007</v>
       </c>
       <c r="E7" t="n">
-        <v>15704</v>
+        <v>8199.6</v>
       </c>
       <c r="F7" t="n">
-        <v>27508.9</v>
+        <v>28138.7</v>
       </c>
       <c r="G7" t="n">
-        <v>84283.8</v>
+        <v>56775</v>
       </c>
       <c r="H7" t="n">
-        <v>31906.1</v>
+        <v>32554.2</v>
       </c>
       <c r="I7" t="n">
-        <v>92271.7</v>
+        <v>60365.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>65699.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5007</v>
+      </c>
+      <c r="L7" t="n">
+        <v>28138.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32554.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65699.89999999999</v>
+        <v>66919.39999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>125340.1</v>
+        <v>192259.5</v>
       </c>
       <c r="D8" t="n">
-        <v>5007</v>
+        <v>7504.5</v>
       </c>
       <c r="E8" t="n">
-        <v>8199.6</v>
+        <v>15704</v>
       </c>
       <c r="F8" t="n">
-        <v>28138.7</v>
+        <v>27508.9</v>
       </c>
       <c r="G8" t="n">
-        <v>56775</v>
+        <v>84283.8</v>
       </c>
       <c r="H8" t="n">
-        <v>32554.2</v>
+        <v>31906.1</v>
       </c>
       <c r="I8" t="n">
-        <v>60365.6</v>
+        <v>92271.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66919.39999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7504.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>27508.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>31906.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -722,11 +826,23 @@
       <c r="I9" t="n">
         <v>126281.9</v>
       </c>
+      <c r="J9" t="n">
+        <v>72213.29999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9163.900000000001</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29039.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>34010.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -753,73 +869,109 @@
       <c r="I10" t="n">
         <v>29412.3</v>
       </c>
+      <c r="J10" t="n">
+        <v>63431.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3313.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30706.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>29412.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74022.5</v>
+        <v>71090.39999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>208544.8</v>
+        <v>134522.3</v>
       </c>
       <c r="D11" t="n">
-        <v>7813</v>
+        <v>5193.3</v>
       </c>
       <c r="E11" t="n">
-        <v>16319.3</v>
+        <v>8506.299999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>30588.6</v>
+        <v>30646.2</v>
       </c>
       <c r="G11" t="n">
-        <v>91941.3</v>
+        <v>61352.7</v>
       </c>
       <c r="H11" t="n">
-        <v>35621</v>
+        <v>35250.9</v>
       </c>
       <c r="I11" t="n">
-        <v>100284.2</v>
+        <v>64663.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>71090.39999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5193.199999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30646.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>35250.89999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71090.39999999999</v>
+        <v>74022.5</v>
       </c>
       <c r="C12" t="n">
-        <v>134522.3</v>
+        <v>208544.8</v>
       </c>
       <c r="D12" t="n">
-        <v>5193.3</v>
+        <v>7813</v>
       </c>
       <c r="E12" t="n">
-        <v>8506.299999999999</v>
+        <v>16319.3</v>
       </c>
       <c r="F12" t="n">
-        <v>30646.2</v>
+        <v>30588.6</v>
       </c>
       <c r="G12" t="n">
-        <v>61352.7</v>
+        <v>91941.3</v>
       </c>
       <c r="H12" t="n">
-        <v>35250.9</v>
+        <v>35621</v>
       </c>
       <c r="I12" t="n">
-        <v>64663.2</v>
+        <v>100284.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>74022.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7813</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30588.60000000001</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -846,11 +998,23 @@
       <c r="I13" t="n">
         <v>139279.8</v>
       </c>
+      <c r="J13" t="n">
+        <v>80785.10000000003</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9544</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32245.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>38995.59999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -877,73 +1041,109 @@
       <c r="I14" t="n">
         <v>33944.9</v>
       </c>
+      <c r="J14" t="n">
+        <v>71168</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3441.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33781.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>33944.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81366.7</v>
+        <v>78746.89999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>231281.6</v>
+        <v>149914.9</v>
       </c>
       <c r="D15" t="n">
-        <v>8146.7</v>
+        <v>5379.6</v>
       </c>
       <c r="E15" t="n">
-        <v>16967.6</v>
+        <v>8821</v>
       </c>
       <c r="F15" t="n">
-        <v>33518.1</v>
+        <v>33587</v>
       </c>
       <c r="G15" t="n">
-        <v>100886.8</v>
+        <v>67368.60000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>39701.9</v>
+        <v>39780.3</v>
       </c>
       <c r="I15" t="n">
-        <v>113427.2</v>
+        <v>73725.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>78746.89999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5379.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>33587.00000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>39780.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78746.89999999999</v>
+        <v>81366.7</v>
       </c>
       <c r="C16" t="n">
-        <v>149914.9</v>
+        <v>231281.6</v>
       </c>
       <c r="D16" t="n">
-        <v>5379.6</v>
+        <v>8146.7</v>
       </c>
       <c r="E16" t="n">
-        <v>8821</v>
+        <v>16967.6</v>
       </c>
       <c r="F16" t="n">
-        <v>33587</v>
+        <v>33518.1</v>
       </c>
       <c r="G16" t="n">
-        <v>67368.60000000001</v>
+        <v>100886.8</v>
       </c>
       <c r="H16" t="n">
-        <v>39780.3</v>
+        <v>39701.9</v>
       </c>
       <c r="I16" t="n">
-        <v>73725.3</v>
+        <v>113427.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>81366.70000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8146.599999999999</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33518.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>39701.89999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -970,11 +1170,23 @@
       <c r="I17" t="n">
         <v>156945.5</v>
       </c>
+      <c r="J17" t="n">
+        <v>88820.99999999997</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9995.100000000002</v>
+      </c>
+      <c r="L17" t="n">
+        <v>35307.59999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>43518.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1001,73 +1213,109 @@
       <c r="I18" t="n">
         <v>44870.1</v>
       </c>
+      <c r="J18" t="n">
+        <v>98902.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4978</v>
+      </c>
+      <c r="L18" t="n">
+        <v>49054.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>44870.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115223.5</v>
+        <v>110314.2</v>
       </c>
       <c r="C19" t="n">
-        <v>324440.5</v>
+        <v>209217</v>
       </c>
       <c r="D19" t="n">
-        <v>12114.8</v>
+        <v>7994.4</v>
       </c>
       <c r="E19" t="n">
-        <v>25087.2</v>
+        <v>12972.4</v>
       </c>
       <c r="F19" t="n">
-        <v>49257</v>
+        <v>49172.7</v>
       </c>
       <c r="G19" t="n">
-        <v>147484.3</v>
+        <v>98227.39999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>53851.7</v>
+        <v>53147.1</v>
       </c>
       <c r="I19" t="n">
-        <v>151868.9</v>
+        <v>98017.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>110314.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7994.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>49172.7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>53147.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110314.2</v>
+        <v>115223.5</v>
       </c>
       <c r="C20" t="n">
-        <v>209217</v>
+        <v>324440.5</v>
       </c>
       <c r="D20" t="n">
-        <v>7994.4</v>
+        <v>12114.8</v>
       </c>
       <c r="E20" t="n">
-        <v>12972.4</v>
+        <v>25087.2</v>
       </c>
       <c r="F20" t="n">
-        <v>49172.7</v>
+        <v>49257</v>
       </c>
       <c r="G20" t="n">
-        <v>98227.39999999999</v>
+        <v>147484.3</v>
       </c>
       <c r="H20" t="n">
-        <v>53147.1</v>
+        <v>53851.7</v>
       </c>
       <c r="I20" t="n">
-        <v>98017.2</v>
+        <v>151868.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>115223.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12114.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>49256.89999999999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>53851.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1094,11 +1342,23 @@
       <c r="I21" t="n">
         <v>212108.9</v>
       </c>
+      <c r="J21" t="n">
+        <v>127039.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14947.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>51851.90000000002</v>
+      </c>
+      <c r="M21" t="n">
+        <v>60240</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1125,73 +1385,109 @@
       <c r="I22" t="n">
         <v>49128.1</v>
       </c>
+      <c r="J22" t="n">
+        <v>106938.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5164.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>52646.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>49128.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>123917</v>
+        <v>118757.4</v>
       </c>
       <c r="C23" t="n">
-        <v>349612.9</v>
+        <v>225695.9</v>
       </c>
       <c r="D23" t="n">
-        <v>12607.4</v>
+        <v>8360</v>
       </c>
       <c r="E23" t="n">
-        <v>26131.5</v>
+        <v>13524.2</v>
       </c>
       <c r="F23" t="n">
-        <v>53304.9</v>
+        <v>53014.3</v>
       </c>
       <c r="G23" t="n">
-        <v>158965.5</v>
+        <v>105660.6</v>
       </c>
       <c r="H23" t="n">
-        <v>58004.7</v>
+        <v>57383.1</v>
       </c>
       <c r="I23" t="n">
-        <v>164515.9</v>
+        <v>106511.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>118757.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8360</v>
+      </c>
+      <c r="L23" t="n">
+        <v>53014.40000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>57383.00000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118757.4</v>
+        <v>123917</v>
       </c>
       <c r="C24" t="n">
-        <v>225695.9</v>
+        <v>349612.9</v>
       </c>
       <c r="D24" t="n">
-        <v>8360</v>
+        <v>12607.4</v>
       </c>
       <c r="E24" t="n">
-        <v>13524.2</v>
+        <v>26131.5</v>
       </c>
       <c r="F24" t="n">
-        <v>53014.3</v>
+        <v>53304.9</v>
       </c>
       <c r="G24" t="n">
-        <v>105660.6</v>
+        <v>158965.5</v>
       </c>
       <c r="H24" t="n">
-        <v>57383.1</v>
+        <v>58004.7</v>
       </c>
       <c r="I24" t="n">
-        <v>106511.1</v>
+        <v>164515.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>123917</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12607.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>53304.89999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>58004.79999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1218,11 +1514,23 @@
       <c r="I25" t="n">
         <v>229848.9</v>
       </c>
+      <c r="J25" t="n">
+        <v>137370.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15691.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>56345.70000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>65333</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1249,73 +1557,109 @@
       <c r="I26" t="n">
         <v>52973.4</v>
       </c>
+      <c r="J26" t="n">
+        <v>115342.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5319.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>57049.9</v>
+      </c>
+      <c r="M26" t="n">
+        <v>52973.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>133751.6</v>
+        <v>127743.9</v>
       </c>
       <c r="C27" t="n">
-        <v>376837.9</v>
+        <v>243086.3</v>
       </c>
       <c r="D27" t="n">
-        <v>13094.1</v>
+        <v>8580.5</v>
       </c>
       <c r="E27" t="n">
-        <v>26993.8</v>
+        <v>13899.7</v>
       </c>
       <c r="F27" t="n">
-        <v>57816.3</v>
+        <v>57427.1</v>
       </c>
       <c r="G27" t="n">
-        <v>172293.4</v>
+        <v>114477</v>
       </c>
       <c r="H27" t="n">
-        <v>62841.2</v>
+        <v>61736.3</v>
       </c>
       <c r="I27" t="n">
-        <v>177550.8</v>
+        <v>114709.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>127743.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8580.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>57427.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>61736.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>127743.9</v>
+        <v>133751.6</v>
       </c>
       <c r="C28" t="n">
-        <v>243086.3</v>
+        <v>376837.9</v>
       </c>
       <c r="D28" t="n">
-        <v>8580.5</v>
+        <v>13094.1</v>
       </c>
       <c r="E28" t="n">
-        <v>13899.7</v>
+        <v>26993.8</v>
       </c>
       <c r="F28" t="n">
-        <v>57427.1</v>
+        <v>57816.3</v>
       </c>
       <c r="G28" t="n">
-        <v>114477</v>
+        <v>172293.4</v>
       </c>
       <c r="H28" t="n">
-        <v>61736.3</v>
+        <v>62841.2</v>
       </c>
       <c r="I28" t="n">
-        <v>114709.6</v>
+        <v>177550.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>133751.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13094.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>57816.39999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>62841.19999999998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1342,11 +1686,23 @@
       <c r="I29" t="n">
         <v>248207.4</v>
       </c>
+      <c r="J29" t="n">
+        <v>147965.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>16421.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>60886.80000000002</v>
+      </c>
+      <c r="M29" t="n">
+        <v>70656.60000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1373,73 +1729,109 @@
       <c r="I30" t="n">
         <v>56854.3</v>
       </c>
+      <c r="J30" t="n">
+        <v>124032.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5490.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>61688.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>56854.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143448.1</v>
+        <v>137477.3</v>
       </c>
       <c r="C31" t="n">
-        <v>404958.1</v>
+        <v>261510</v>
       </c>
       <c r="D31" t="n">
-        <v>13698</v>
+        <v>8921.4</v>
       </c>
       <c r="E31" t="n">
-        <v>28109.7</v>
+        <v>14411.6</v>
       </c>
       <c r="F31" t="n">
-        <v>62478.4</v>
+        <v>62136.4</v>
       </c>
       <c r="G31" t="n">
-        <v>186303</v>
+        <v>123824.6</v>
       </c>
       <c r="H31" t="n">
-        <v>67271.7</v>
+        <v>66419.39999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>190545.5</v>
+        <v>123273.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>137477.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8921.400000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>62136.40000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>66419.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137477.3</v>
+        <v>143448.1</v>
       </c>
       <c r="C32" t="n">
-        <v>261510</v>
+        <v>404958.1</v>
       </c>
       <c r="D32" t="n">
-        <v>8921.4</v>
+        <v>13698</v>
       </c>
       <c r="E32" t="n">
-        <v>14411.6</v>
+        <v>28109.7</v>
       </c>
       <c r="F32" t="n">
-        <v>62136.4</v>
+        <v>62478.4</v>
       </c>
       <c r="G32" t="n">
-        <v>123824.6</v>
+        <v>186303</v>
       </c>
       <c r="H32" t="n">
-        <v>66419.39999999999</v>
+        <v>67271.7</v>
       </c>
       <c r="I32" t="n">
-        <v>123273.8</v>
+        <v>190545.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>143448.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13698.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>62478.39999999999</v>
+      </c>
+      <c r="M32" t="n">
+        <v>67271.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1466,11 +1858,23 @@
       <c r="I33" t="n">
         <v>265968</v>
       </c>
+      <c r="J33" t="n">
+        <v>158815.7000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17064.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>66328.70000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>75422.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1497,73 +1901,109 @@
       <c r="I34" t="n">
         <v>60370.3</v>
       </c>
+      <c r="J34" t="n">
+        <v>132883.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5661.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>66852.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>60370.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153478.9</v>
+        <v>147275.4</v>
       </c>
       <c r="C35" t="n">
-        <v>433638.1</v>
+        <v>280159.2</v>
       </c>
       <c r="D35" t="n">
-        <v>14266.1</v>
+        <v>9247.1</v>
       </c>
       <c r="E35" t="n">
-        <v>29174.4</v>
+        <v>14908.3</v>
       </c>
       <c r="F35" t="n">
-        <v>68115.5</v>
+        <v>67703.8</v>
       </c>
       <c r="G35" t="n">
-        <v>202671.7</v>
+        <v>134556.2</v>
       </c>
       <c r="H35" t="n">
-        <v>71097.3</v>
+        <v>70324.39999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>201792</v>
+        <v>130694.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>147275.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9247.099999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>67703.90000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>70324.39999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>147275.4</v>
+        <v>153478.9</v>
       </c>
       <c r="C36" t="n">
-        <v>280159.2</v>
+        <v>433638.1</v>
       </c>
       <c r="D36" t="n">
-        <v>9247.1</v>
+        <v>14266.1</v>
       </c>
       <c r="E36" t="n">
-        <v>14908.3</v>
+        <v>29174.4</v>
       </c>
       <c r="F36" t="n">
-        <v>67703.8</v>
+        <v>68115.5</v>
       </c>
       <c r="G36" t="n">
-        <v>134556.2</v>
+        <v>202671.7</v>
       </c>
       <c r="H36" t="n">
-        <v>70324.39999999999</v>
+        <v>71097.3</v>
       </c>
       <c r="I36" t="n">
-        <v>130694.7</v>
+        <v>201792</v>
+      </c>
+      <c r="J36" t="n">
+        <v>153478.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14266.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>68115.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>71097.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1590,11 +2030,23 @@
       <c r="I37" t="n">
         <v>281731.3</v>
       </c>
+      <c r="J37" t="n">
+        <v>169832.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>17760.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>72132.70000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>79939.29999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1621,73 +2073,109 @@
       <c r="I38" t="n">
         <v>62905.4</v>
       </c>
+      <c r="J38" t="n">
+        <v>161760.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7584.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>91270.60000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>62905.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188607.2</v>
+        <v>179988</v>
       </c>
       <c r="C39" t="n">
-        <v>530355.7</v>
+        <v>341748.6</v>
       </c>
       <c r="D39" t="n">
-        <v>17859.6</v>
+        <v>12221</v>
       </c>
       <c r="E39" t="n">
-        <v>37665.1</v>
+        <v>19805.4</v>
       </c>
       <c r="F39" t="n">
-        <v>94525.2</v>
+        <v>92941.2</v>
       </c>
       <c r="G39" t="n">
-        <v>278737</v>
+        <v>184211.8</v>
       </c>
       <c r="H39" t="n">
-        <v>76222.3</v>
+        <v>74825.89999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>213953.6</v>
+        <v>137731.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>179988.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12220.9</v>
+      </c>
+      <c r="L39" t="n">
+        <v>92941.19999999998</v>
+      </c>
+      <c r="M39" t="n">
+        <v>74825.89999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179988</v>
+        <v>188607.2</v>
       </c>
       <c r="C40" t="n">
-        <v>341748.6</v>
+        <v>530355.7</v>
       </c>
       <c r="D40" t="n">
-        <v>12221</v>
+        <v>17859.6</v>
       </c>
       <c r="E40" t="n">
-        <v>19805.4</v>
+        <v>37665.1</v>
       </c>
       <c r="F40" t="n">
-        <v>92941.2</v>
+        <v>94525.2</v>
       </c>
       <c r="G40" t="n">
-        <v>184211.8</v>
+        <v>278737</v>
       </c>
       <c r="H40" t="n">
-        <v>74825.89999999999</v>
+        <v>76222.3</v>
       </c>
       <c r="I40" t="n">
-        <v>137731.3</v>
+        <v>213953.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>188607.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>17859.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>94525.20000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>76222.30000000002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1714,11 +2202,23 @@
       <c r="I41" t="n">
         <v>298307.8</v>
       </c>
+      <c r="J41" t="n">
+        <v>205680.8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>22003.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>99323.29999999999</v>
+      </c>
+      <c r="M41" t="n">
+        <v>84354.19999999998</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1745,73 +2245,109 @@
       <c r="I42" t="n">
         <v>66747.5</v>
       </c>
+      <c r="J42" t="n">
+        <v>173159.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7815.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>98597</v>
+      </c>
+      <c r="M42" t="n">
+        <v>66747.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201648.3</v>
+        <v>192594.3</v>
       </c>
       <c r="C43" t="n">
-        <v>567402.2</v>
+        <v>365753.9</v>
       </c>
       <c r="D43" t="n">
-        <v>18558.5</v>
+        <v>12683.9</v>
       </c>
       <c r="E43" t="n">
-        <v>39057.5</v>
+        <v>20499</v>
       </c>
       <c r="F43" t="n">
-        <v>102459.1</v>
+        <v>100426.7</v>
       </c>
       <c r="G43" t="n">
-        <v>301482.7</v>
+        <v>199023.6</v>
       </c>
       <c r="H43" t="n">
-        <v>80630.8</v>
+        <v>79483.8</v>
       </c>
       <c r="I43" t="n">
-        <v>226862.1</v>
+        <v>146231.3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>192594.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>12683.9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100426.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>79483.79999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192594.3</v>
+        <v>201648.3</v>
       </c>
       <c r="C44" t="n">
-        <v>365753.9</v>
+        <v>567402.2</v>
       </c>
       <c r="D44" t="n">
-        <v>12683.9</v>
+        <v>18558.5</v>
       </c>
       <c r="E44" t="n">
-        <v>20499</v>
+        <v>39057.5</v>
       </c>
       <c r="F44" t="n">
-        <v>100426.7</v>
+        <v>102459.1</v>
       </c>
       <c r="G44" t="n">
-        <v>199023.6</v>
+        <v>301482.7</v>
       </c>
       <c r="H44" t="n">
-        <v>79483.8</v>
+        <v>80630.8</v>
       </c>
       <c r="I44" t="n">
-        <v>146231.3</v>
+        <v>226862.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>201648.2999999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>18558.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>102459.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>80630.80000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1838,11 +2374,23 @@
       <c r="I45" t="n">
         <v>315813.4</v>
       </c>
+      <c r="J45" t="n">
+        <v>219768.2000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>22974.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>107842.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>88951.30000000002</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1869,73 +2417,109 @@
       <c r="I46" t="n">
         <v>70884.60000000001</v>
       </c>
+      <c r="J46" t="n">
+        <v>185190</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8065</v>
+      </c>
+      <c r="L46" t="n">
+        <v>106240.4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>70884.60000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>215098.8</v>
+        <v>205905.5</v>
       </c>
       <c r="C47" t="n">
-        <v>606194.4</v>
+        <v>391095.5</v>
       </c>
       <c r="D47" t="n">
-        <v>19228.5</v>
+        <v>13110.2</v>
       </c>
       <c r="E47" t="n">
-        <v>40403.7</v>
+        <v>21175.2</v>
       </c>
       <c r="F47" t="n">
-        <v>110969</v>
+        <v>108584</v>
       </c>
       <c r="G47" t="n">
-        <v>325793.4</v>
+        <v>214824.4</v>
       </c>
       <c r="H47" t="n">
-        <v>84901.39999999999</v>
+        <v>84211.3</v>
       </c>
       <c r="I47" t="n">
-        <v>239997.3</v>
+        <v>155095.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>205905.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>13110.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>108584</v>
+      </c>
+      <c r="M47" t="n">
+        <v>84211.29999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>205905.5</v>
+        <v>215098.8</v>
       </c>
       <c r="C48" t="n">
-        <v>391095.5</v>
+        <v>606194.4</v>
       </c>
       <c r="D48" t="n">
-        <v>13110.2</v>
+        <v>19228.5</v>
       </c>
       <c r="E48" t="n">
-        <v>21175.2</v>
+        <v>40403.7</v>
       </c>
       <c r="F48" t="n">
-        <v>108584</v>
+        <v>110969</v>
       </c>
       <c r="G48" t="n">
-        <v>214824.4</v>
+        <v>325793.4</v>
       </c>
       <c r="H48" t="n">
-        <v>84211.3</v>
+        <v>84901.39999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>155095.9</v>
+        <v>239997.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>215098.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>19228.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>110969</v>
+      </c>
+      <c r="M48" t="n">
+        <v>84901.39999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1962,11 +2546,23 @@
       <c r="I49" t="n">
         <v>334106.6</v>
       </c>
+      <c r="J49" t="n">
+        <v>234108.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>23788.8</v>
+      </c>
+      <c r="L49" t="n">
+        <v>116210.1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>94109.29999999999</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1993,73 +2589,109 @@
       <c r="I50" t="n">
         <v>74610.3</v>
       </c>
+      <c r="J50" t="n">
+        <v>196802.8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8281.799999999999</v>
+      </c>
+      <c r="L50" t="n">
+        <v>113910.7</v>
+      </c>
+      <c r="M50" t="n">
+        <v>74610.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>227683.6</v>
+        <v>218190.6</v>
       </c>
       <c r="C51" t="n">
-        <v>642677</v>
+        <v>414993.4</v>
       </c>
       <c r="D51" t="n">
-        <v>19756.9</v>
+        <v>13540.5</v>
       </c>
       <c r="E51" t="n">
-        <v>41579.2</v>
+        <v>21822.4</v>
       </c>
       <c r="F51" t="n">
-        <v>119181</v>
+        <v>116442.7</v>
       </c>
       <c r="G51" t="n">
-        <v>349534.3</v>
+        <v>230353.4</v>
       </c>
       <c r="H51" t="n">
-        <v>88745.8</v>
+        <v>88207.3</v>
       </c>
       <c r="I51" t="n">
-        <v>251563.5</v>
+        <v>162817.7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>218190.6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>13540.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>116442.7</v>
+      </c>
+      <c r="M51" t="n">
+        <v>88207.40000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>218190.6</v>
+        <v>227683.6</v>
       </c>
       <c r="C52" t="n">
-        <v>414993.4</v>
+        <v>642677</v>
       </c>
       <c r="D52" t="n">
-        <v>13540.5</v>
+        <v>19756.9</v>
       </c>
       <c r="E52" t="n">
-        <v>21822.4</v>
+        <v>41579.2</v>
       </c>
       <c r="F52" t="n">
-        <v>116442.7</v>
+        <v>119181</v>
       </c>
       <c r="G52" t="n">
-        <v>230353.4</v>
+        <v>349534.3</v>
       </c>
       <c r="H52" t="n">
-        <v>88207.3</v>
+        <v>88745.8</v>
       </c>
       <c r="I52" t="n">
-        <v>162817.7</v>
+        <v>251563.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>227683.6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>19756.8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>119180.9</v>
+      </c>
+      <c r="M52" t="n">
+        <v>88745.79999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2086,11 +2718,23 @@
       <c r="I53" t="n">
         <v>350393</v>
       </c>
+      <c r="J53" t="n">
+        <v>247627.8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>24588.40000000001</v>
+      </c>
+      <c r="L53" t="n">
+        <v>124209.9</v>
+      </c>
+      <c r="M53" t="n">
+        <v>98829.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2117,73 +2761,109 @@
       <c r="I54" t="n">
         <v>67368.3</v>
       </c>
+      <c r="J54" t="n">
+        <v>183177.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8026.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>107783.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>67368.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>238702.1</v>
+        <v>224846.8</v>
       </c>
       <c r="C55" t="n">
-        <v>646726.6</v>
+        <v>408024.6</v>
       </c>
       <c r="D55" t="n">
-        <v>20561.5</v>
+        <v>14014.4</v>
       </c>
       <c r="E55" t="n">
-        <v>42602.1</v>
+        <v>22040.6</v>
       </c>
       <c r="F55" t="n">
-        <v>124168.4</v>
+        <v>118570.1</v>
       </c>
       <c r="G55" t="n">
-        <v>350521.8</v>
+        <v>226353.4</v>
       </c>
       <c r="H55" t="n">
-        <v>93972.2</v>
+        <v>92262.2</v>
       </c>
       <c r="I55" t="n">
-        <v>253602.7</v>
+        <v>159630.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>224846.8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>14014.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>118570.1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>92262.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>224846.8</v>
+        <v>238702.1</v>
       </c>
       <c r="C56" t="n">
-        <v>408024.6</v>
+        <v>646726.6</v>
       </c>
       <c r="D56" t="n">
-        <v>14014.4</v>
+        <v>20561.5</v>
       </c>
       <c r="E56" t="n">
-        <v>22040.6</v>
+        <v>42602.1</v>
       </c>
       <c r="F56" t="n">
-        <v>118570.1</v>
+        <v>124168.4</v>
       </c>
       <c r="G56" t="n">
-        <v>226353.4</v>
+        <v>350521.8</v>
       </c>
       <c r="H56" t="n">
-        <v>92262.2</v>
+        <v>93972.2</v>
       </c>
       <c r="I56" t="n">
-        <v>159630.6</v>
+        <v>253602.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>238702</v>
+      </c>
+      <c r="K56" t="n">
+        <v>20561.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>124168.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>93972.10000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2210,11 +2890,23 @@
       <c r="I57" t="n">
         <v>359027.6</v>
       </c>
+      <c r="J57" t="n">
+        <v>263509</v>
+      </c>
+      <c r="K57" t="n">
+        <v>25637.3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>132446.8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>105424.9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2241,73 +2933,109 @@
       <c r="I58" t="n">
         <v>91179.2</v>
       </c>
+      <c r="J58" t="n">
+        <v>244678.9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10337.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>143162.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>91179.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>277688.8</v>
+        <v>267700.7</v>
       </c>
       <c r="C59" t="n">
-        <v>790068.4</v>
+        <v>512379.6</v>
       </c>
       <c r="D59" t="n">
-        <v>24814.3</v>
+        <v>17204.4</v>
       </c>
       <c r="E59" t="n">
-        <v>52356.3</v>
+        <v>27542</v>
       </c>
       <c r="F59" t="n">
-        <v>149524.1</v>
+        <v>146637.5</v>
       </c>
       <c r="G59" t="n">
-        <v>439323.7</v>
+        <v>289799.6</v>
       </c>
       <c r="H59" t="n">
-        <v>103350.4</v>
+        <v>103858.8</v>
       </c>
       <c r="I59" t="n">
-        <v>298388.3</v>
+        <v>195038</v>
+      </c>
+      <c r="J59" t="n">
+        <v>267700.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>17204.4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>146637.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>103858.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>267700.7</v>
+        <v>277688.8</v>
       </c>
       <c r="C60" t="n">
-        <v>512379.6</v>
+        <v>790068.4</v>
       </c>
       <c r="D60" t="n">
-        <v>17204.4</v>
+        <v>24814.3</v>
       </c>
       <c r="E60" t="n">
-        <v>27542</v>
+        <v>52356.3</v>
       </c>
       <c r="F60" t="n">
-        <v>146637.5</v>
+        <v>149524.1</v>
       </c>
       <c r="G60" t="n">
-        <v>289799.6</v>
+        <v>439323.7</v>
       </c>
       <c r="H60" t="n">
-        <v>103858.8</v>
+        <v>103350.4</v>
       </c>
       <c r="I60" t="n">
-        <v>195038</v>
+        <v>298388.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>277688.8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24814.3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>149524.1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>103350.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2333,6 +3061,18 @@
       </c>
       <c r="I61" t="n">
         <v>415113.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>305702.7999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>31176.7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>157800.7</v>
+      </c>
+      <c r="M61" t="n">
+        <v>116725.5</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/国民经济核算/国内生产总值(不变价).xlsx
+++ b/data_quarter/zb/国民经济核算/国内生产总值(不变价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,26 +474,6 @@
           <t>第二产业增加值(不变价)_累计值</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国内生产总值(不变价)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>第一产业增加值(不变价)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>第三产业增加值(不变价)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>第二产业增加值(不变价)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -525,103 +505,67 @@
       <c r="I2" t="n">
         <v>24673.7</v>
       </c>
-      <c r="J2" t="n">
-        <v>53480.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3109.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>25697.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24673.7</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59216.8</v>
+        <v>61099.4</v>
       </c>
       <c r="C3" t="n">
-        <v>112697.1</v>
+        <v>173796.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4821.1</v>
+        <v>7112.3</v>
       </c>
       <c r="E3" t="n">
-        <v>7930.6</v>
+        <v>15042.9</v>
       </c>
       <c r="F3" t="n">
-        <v>25244.7</v>
+        <v>24788.3</v>
       </c>
       <c r="G3" t="n">
-        <v>50941.9</v>
+        <v>75730.10000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>29151</v>
+        <v>29198.8</v>
       </c>
       <c r="I3" t="n">
-        <v>53824.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>59216.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4821.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25244.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>29151</v>
+        <v>83023.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61099.4</v>
+        <v>59216.8</v>
       </c>
       <c r="C4" t="n">
-        <v>173796.6</v>
+        <v>112697.1</v>
       </c>
       <c r="D4" t="n">
-        <v>7112.3</v>
+        <v>4821.1</v>
       </c>
       <c r="E4" t="n">
-        <v>15042.9</v>
+        <v>7930.6</v>
       </c>
       <c r="F4" t="n">
-        <v>24788.3</v>
+        <v>25244.7</v>
       </c>
       <c r="G4" t="n">
-        <v>75730.10000000001</v>
+        <v>50941.9</v>
       </c>
       <c r="H4" t="n">
-        <v>29198.8</v>
+        <v>29151</v>
       </c>
       <c r="I4" t="n">
-        <v>83023.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>61099.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7112.299999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>24788.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29198.8</v>
+        <v>53824.7</v>
       </c>
     </row>
     <row r="5">
@@ -654,18 +598,6 @@
       <c r="I5" t="n">
         <v>114970</v>
       </c>
-      <c r="J5" t="n">
-        <v>67399.19999999998</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8605.699999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>26847.09999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>31946.5</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -697,103 +629,67 @@
       <c r="I6" t="n">
         <v>27811.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>59640.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3192.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>28636.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>27811.4</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65699.89999999999</v>
+        <v>66919.39999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>125340.1</v>
+        <v>192259.5</v>
       </c>
       <c r="D7" t="n">
-        <v>5007</v>
+        <v>7504.5</v>
       </c>
       <c r="E7" t="n">
-        <v>8199.6</v>
+        <v>15704</v>
       </c>
       <c r="F7" t="n">
-        <v>28138.7</v>
+        <v>27508.9</v>
       </c>
       <c r="G7" t="n">
-        <v>56775</v>
+        <v>84283.8</v>
       </c>
       <c r="H7" t="n">
-        <v>32554.2</v>
+        <v>31906.1</v>
       </c>
       <c r="I7" t="n">
-        <v>60365.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>65699.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5007</v>
-      </c>
-      <c r="L7" t="n">
-        <v>28138.7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>32554.2</v>
+        <v>92271.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66919.39999999999</v>
+        <v>65699.89999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>192259.5</v>
+        <v>125340.1</v>
       </c>
       <c r="D8" t="n">
-        <v>7504.5</v>
+        <v>5007</v>
       </c>
       <c r="E8" t="n">
-        <v>15704</v>
+        <v>8199.6</v>
       </c>
       <c r="F8" t="n">
-        <v>27508.9</v>
+        <v>28138.7</v>
       </c>
       <c r="G8" t="n">
-        <v>84283.8</v>
+        <v>56775</v>
       </c>
       <c r="H8" t="n">
-        <v>31906.1</v>
+        <v>32554.2</v>
       </c>
       <c r="I8" t="n">
-        <v>92271.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>66919.39999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7504.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>27508.8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>31906.1</v>
+        <v>60365.6</v>
       </c>
     </row>
     <row r="9">
@@ -826,18 +722,6 @@
       <c r="I9" t="n">
         <v>126281.9</v>
       </c>
-      <c r="J9" t="n">
-        <v>72213.29999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9163.900000000001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>29039.2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>34010.2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -869,103 +753,67 @@
       <c r="I10" t="n">
         <v>29412.3</v>
       </c>
-      <c r="J10" t="n">
-        <v>63431.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3313.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>30706.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>29412.3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71090.39999999999</v>
+        <v>74022.5</v>
       </c>
       <c r="C11" t="n">
-        <v>134522.3</v>
+        <v>208544.8</v>
       </c>
       <c r="D11" t="n">
-        <v>5193.3</v>
+        <v>7813</v>
       </c>
       <c r="E11" t="n">
-        <v>8506.299999999999</v>
+        <v>16319.3</v>
       </c>
       <c r="F11" t="n">
-        <v>30646.2</v>
+        <v>30588.6</v>
       </c>
       <c r="G11" t="n">
-        <v>61352.7</v>
+        <v>91941.3</v>
       </c>
       <c r="H11" t="n">
-        <v>35250.9</v>
+        <v>35621</v>
       </c>
       <c r="I11" t="n">
-        <v>64663.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>71090.39999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5193.199999999999</v>
-      </c>
-      <c r="L11" t="n">
-        <v>30646.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>35250.89999999999</v>
+        <v>100284.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74022.5</v>
+        <v>71090.39999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>208544.8</v>
+        <v>134522.3</v>
       </c>
       <c r="D12" t="n">
-        <v>7813</v>
+        <v>5193.3</v>
       </c>
       <c r="E12" t="n">
-        <v>16319.3</v>
+        <v>8506.299999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>30588.6</v>
+        <v>30646.2</v>
       </c>
       <c r="G12" t="n">
-        <v>91941.3</v>
+        <v>61352.7</v>
       </c>
       <c r="H12" t="n">
-        <v>35621</v>
+        <v>35250.9</v>
       </c>
       <c r="I12" t="n">
-        <v>100284.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>74022.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7813</v>
-      </c>
-      <c r="L12" t="n">
-        <v>30588.60000000001</v>
-      </c>
-      <c r="M12" t="n">
-        <v>35621</v>
+        <v>64663.2</v>
       </c>
     </row>
     <row r="13">
@@ -998,18 +846,6 @@
       <c r="I13" t="n">
         <v>139279.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>80785.10000000003</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9544</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32245.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>38995.59999999999</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,103 +877,67 @@
       <c r="I14" t="n">
         <v>33944.9</v>
       </c>
-      <c r="J14" t="n">
-        <v>71168</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3441.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>33781.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>33944.9</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78746.89999999999</v>
+        <v>81366.7</v>
       </c>
       <c r="C15" t="n">
-        <v>149914.9</v>
+        <v>231281.6</v>
       </c>
       <c r="D15" t="n">
-        <v>5379.6</v>
+        <v>8146.7</v>
       </c>
       <c r="E15" t="n">
-        <v>8821</v>
+        <v>16967.6</v>
       </c>
       <c r="F15" t="n">
-        <v>33587</v>
+        <v>33518.1</v>
       </c>
       <c r="G15" t="n">
-        <v>67368.60000000001</v>
+        <v>100886.8</v>
       </c>
       <c r="H15" t="n">
-        <v>39780.3</v>
+        <v>39701.9</v>
       </c>
       <c r="I15" t="n">
-        <v>73725.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>78746.89999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5379.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>33587.00000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>39780.4</v>
+        <v>113427.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81366.7</v>
+        <v>78746.89999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>231281.6</v>
+        <v>149914.9</v>
       </c>
       <c r="D16" t="n">
-        <v>8146.7</v>
+        <v>5379.6</v>
       </c>
       <c r="E16" t="n">
-        <v>16967.6</v>
+        <v>8821</v>
       </c>
       <c r="F16" t="n">
-        <v>33518.1</v>
+        <v>33587</v>
       </c>
       <c r="G16" t="n">
-        <v>100886.8</v>
+        <v>67368.60000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>39701.9</v>
+        <v>39780.3</v>
       </c>
       <c r="I16" t="n">
-        <v>113427.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>81366.70000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8146.599999999999</v>
-      </c>
-      <c r="L16" t="n">
-        <v>33518.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>39701.89999999999</v>
+        <v>73725.3</v>
       </c>
     </row>
     <row r="17">
@@ -1170,18 +970,6 @@
       <c r="I17" t="n">
         <v>156945.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>88820.99999999997</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9995.100000000002</v>
-      </c>
-      <c r="L17" t="n">
-        <v>35307.59999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>43518.3</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1213,103 +1001,67 @@
       <c r="I18" t="n">
         <v>44870.1</v>
       </c>
-      <c r="J18" t="n">
-        <v>98902.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4978</v>
-      </c>
-      <c r="L18" t="n">
-        <v>49054.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>44870.1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110314.2</v>
+        <v>115223.5</v>
       </c>
       <c r="C19" t="n">
-        <v>209217</v>
+        <v>324440.5</v>
       </c>
       <c r="D19" t="n">
-        <v>7994.4</v>
+        <v>12114.8</v>
       </c>
       <c r="E19" t="n">
-        <v>12972.4</v>
+        <v>25087.2</v>
       </c>
       <c r="F19" t="n">
-        <v>49172.7</v>
+        <v>49257</v>
       </c>
       <c r="G19" t="n">
-        <v>98227.39999999999</v>
+        <v>147484.3</v>
       </c>
       <c r="H19" t="n">
-        <v>53147.1</v>
+        <v>53851.7</v>
       </c>
       <c r="I19" t="n">
-        <v>98017.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>110314.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7994.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>49172.7</v>
-      </c>
-      <c r="M19" t="n">
-        <v>53147.1</v>
+        <v>151868.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115223.5</v>
+        <v>110314.2</v>
       </c>
       <c r="C20" t="n">
-        <v>324440.5</v>
+        <v>209217</v>
       </c>
       <c r="D20" t="n">
-        <v>12114.8</v>
+        <v>7994.4</v>
       </c>
       <c r="E20" t="n">
-        <v>25087.2</v>
+        <v>12972.4</v>
       </c>
       <c r="F20" t="n">
-        <v>49257</v>
+        <v>49172.7</v>
       </c>
       <c r="G20" t="n">
-        <v>147484.3</v>
+        <v>98227.39999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>53851.7</v>
+        <v>53147.1</v>
       </c>
       <c r="I20" t="n">
-        <v>151868.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>115223.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12114.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>49256.89999999999</v>
-      </c>
-      <c r="M20" t="n">
-        <v>53851.7</v>
+        <v>98017.2</v>
       </c>
     </row>
     <row r="21">
@@ -1342,18 +1094,6 @@
       <c r="I21" t="n">
         <v>212108.9</v>
       </c>
-      <c r="J21" t="n">
-        <v>127039.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14947.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>51851.90000000002</v>
-      </c>
-      <c r="M21" t="n">
-        <v>60240</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1385,103 +1125,67 @@
       <c r="I22" t="n">
         <v>49128.1</v>
       </c>
-      <c r="J22" t="n">
-        <v>106938.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5164.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>52646.2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>49128.1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118757.4</v>
+        <v>123917</v>
       </c>
       <c r="C23" t="n">
-        <v>225695.9</v>
+        <v>349612.9</v>
       </c>
       <c r="D23" t="n">
-        <v>8360</v>
+        <v>12607.4</v>
       </c>
       <c r="E23" t="n">
-        <v>13524.2</v>
+        <v>26131.5</v>
       </c>
       <c r="F23" t="n">
-        <v>53014.3</v>
+        <v>53304.9</v>
       </c>
       <c r="G23" t="n">
-        <v>105660.6</v>
+        <v>158965.5</v>
       </c>
       <c r="H23" t="n">
-        <v>57383.1</v>
+        <v>58004.7</v>
       </c>
       <c r="I23" t="n">
-        <v>106511.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>118757.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8360</v>
-      </c>
-      <c r="L23" t="n">
-        <v>53014.40000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>57383.00000000001</v>
+        <v>164515.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123917</v>
+        <v>118757.4</v>
       </c>
       <c r="C24" t="n">
-        <v>349612.9</v>
+        <v>225695.9</v>
       </c>
       <c r="D24" t="n">
-        <v>12607.4</v>
+        <v>8360</v>
       </c>
       <c r="E24" t="n">
-        <v>26131.5</v>
+        <v>13524.2</v>
       </c>
       <c r="F24" t="n">
-        <v>53304.9</v>
+        <v>53014.3</v>
       </c>
       <c r="G24" t="n">
-        <v>158965.5</v>
+        <v>105660.6</v>
       </c>
       <c r="H24" t="n">
-        <v>58004.7</v>
+        <v>57383.1</v>
       </c>
       <c r="I24" t="n">
-        <v>164515.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>123917</v>
-      </c>
-      <c r="K24" t="n">
-        <v>12607.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>53304.89999999999</v>
-      </c>
-      <c r="M24" t="n">
-        <v>58004.79999999999</v>
+        <v>106511.1</v>
       </c>
     </row>
     <row r="25">
@@ -1514,18 +1218,6 @@
       <c r="I25" t="n">
         <v>229848.9</v>
       </c>
-      <c r="J25" t="n">
-        <v>137370.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>15691.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>56345.70000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>65333</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1557,103 +1249,67 @@
       <c r="I26" t="n">
         <v>52973.4</v>
       </c>
-      <c r="J26" t="n">
-        <v>115342.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5319.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>57049.9</v>
-      </c>
-      <c r="M26" t="n">
-        <v>52973.4</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127743.9</v>
+        <v>133751.6</v>
       </c>
       <c r="C27" t="n">
-        <v>243086.3</v>
+        <v>376837.9</v>
       </c>
       <c r="D27" t="n">
-        <v>8580.5</v>
+        <v>13094.1</v>
       </c>
       <c r="E27" t="n">
-        <v>13899.7</v>
+        <v>26993.8</v>
       </c>
       <c r="F27" t="n">
-        <v>57427.1</v>
+        <v>57816.3</v>
       </c>
       <c r="G27" t="n">
-        <v>114477</v>
+        <v>172293.4</v>
       </c>
       <c r="H27" t="n">
-        <v>61736.3</v>
+        <v>62841.2</v>
       </c>
       <c r="I27" t="n">
-        <v>114709.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>127743.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8580.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>57427.1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>61736.2</v>
+        <v>177550.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133751.6</v>
+        <v>127743.9</v>
       </c>
       <c r="C28" t="n">
-        <v>376837.9</v>
+        <v>243086.3</v>
       </c>
       <c r="D28" t="n">
-        <v>13094.1</v>
+        <v>8580.5</v>
       </c>
       <c r="E28" t="n">
-        <v>26993.8</v>
+        <v>13899.7</v>
       </c>
       <c r="F28" t="n">
-        <v>57816.3</v>
+        <v>57427.1</v>
       </c>
       <c r="G28" t="n">
-        <v>172293.4</v>
+        <v>114477</v>
       </c>
       <c r="H28" t="n">
-        <v>62841.2</v>
+        <v>61736.3</v>
       </c>
       <c r="I28" t="n">
-        <v>177550.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>133751.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>13094.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>57816.39999999999</v>
-      </c>
-      <c r="M28" t="n">
-        <v>62841.19999999998</v>
+        <v>114709.6</v>
       </c>
     </row>
     <row r="29">
@@ -1686,18 +1342,6 @@
       <c r="I29" t="n">
         <v>248207.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>147965.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>16421.7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>60886.80000000002</v>
-      </c>
-      <c r="M29" t="n">
-        <v>70656.60000000001</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1729,103 +1373,67 @@
       <c r="I30" t="n">
         <v>56854.3</v>
       </c>
-      <c r="J30" t="n">
-        <v>124032.7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5490.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>61688.2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>56854.3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137477.3</v>
+        <v>143448.1</v>
       </c>
       <c r="C31" t="n">
-        <v>261510</v>
+        <v>404958.1</v>
       </c>
       <c r="D31" t="n">
-        <v>8921.4</v>
+        <v>13698</v>
       </c>
       <c r="E31" t="n">
-        <v>14411.6</v>
+        <v>28109.7</v>
       </c>
       <c r="F31" t="n">
-        <v>62136.4</v>
+        <v>62478.4</v>
       </c>
       <c r="G31" t="n">
-        <v>123824.6</v>
+        <v>186303</v>
       </c>
       <c r="H31" t="n">
-        <v>66419.39999999999</v>
+        <v>67271.7</v>
       </c>
       <c r="I31" t="n">
-        <v>123273.8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>137477.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8921.400000000001</v>
-      </c>
-      <c r="L31" t="n">
-        <v>62136.40000000001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>66419.5</v>
+        <v>190545.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>143448.1</v>
+        <v>137477.3</v>
       </c>
       <c r="C32" t="n">
-        <v>404958.1</v>
+        <v>261510</v>
       </c>
       <c r="D32" t="n">
-        <v>13698</v>
+        <v>8921.4</v>
       </c>
       <c r="E32" t="n">
-        <v>28109.7</v>
+        <v>14411.6</v>
       </c>
       <c r="F32" t="n">
-        <v>62478.4</v>
+        <v>62136.4</v>
       </c>
       <c r="G32" t="n">
-        <v>186303</v>
+        <v>123824.6</v>
       </c>
       <c r="H32" t="n">
-        <v>67271.7</v>
+        <v>66419.39999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>190545.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>143448.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>13698.1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>62478.39999999999</v>
-      </c>
-      <c r="M32" t="n">
-        <v>67271.7</v>
+        <v>123273.8</v>
       </c>
     </row>
     <row r="33">
@@ -1858,18 +1466,6 @@
       <c r="I33" t="n">
         <v>265968</v>
       </c>
-      <c r="J33" t="n">
-        <v>158815.7000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>17064.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>66328.70000000001</v>
-      </c>
-      <c r="M33" t="n">
-        <v>75422.5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1901,103 +1497,67 @@
       <c r="I34" t="n">
         <v>60370.3</v>
       </c>
-      <c r="J34" t="n">
-        <v>132883.8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5661.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>66852.3</v>
-      </c>
-      <c r="M34" t="n">
-        <v>60370.3</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>147275.4</v>
+        <v>153478.9</v>
       </c>
       <c r="C35" t="n">
-        <v>280159.2</v>
+        <v>433638.1</v>
       </c>
       <c r="D35" t="n">
-        <v>9247.1</v>
+        <v>14266.1</v>
       </c>
       <c r="E35" t="n">
-        <v>14908.3</v>
+        <v>29174.4</v>
       </c>
       <c r="F35" t="n">
-        <v>67703.8</v>
+        <v>68115.5</v>
       </c>
       <c r="G35" t="n">
-        <v>134556.2</v>
+        <v>202671.7</v>
       </c>
       <c r="H35" t="n">
-        <v>70324.39999999999</v>
+        <v>71097.3</v>
       </c>
       <c r="I35" t="n">
-        <v>130694.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>147275.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9247.099999999999</v>
-      </c>
-      <c r="L35" t="n">
-        <v>67703.90000000001</v>
-      </c>
-      <c r="M35" t="n">
-        <v>70324.39999999999</v>
+        <v>201792</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>153478.9</v>
+        <v>147275.4</v>
       </c>
       <c r="C36" t="n">
-        <v>433638.1</v>
+        <v>280159.2</v>
       </c>
       <c r="D36" t="n">
-        <v>14266.1</v>
+        <v>9247.1</v>
       </c>
       <c r="E36" t="n">
-        <v>29174.4</v>
+        <v>14908.3</v>
       </c>
       <c r="F36" t="n">
-        <v>68115.5</v>
+        <v>67703.8</v>
       </c>
       <c r="G36" t="n">
-        <v>202671.7</v>
+        <v>134556.2</v>
       </c>
       <c r="H36" t="n">
-        <v>71097.3</v>
+        <v>70324.39999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>201792</v>
-      </c>
-      <c r="J36" t="n">
-        <v>153478.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>14266.1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>68115.5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>71097.3</v>
+        <v>130694.7</v>
       </c>
     </row>
     <row r="37">
@@ -2030,18 +1590,6 @@
       <c r="I37" t="n">
         <v>281731.3</v>
       </c>
-      <c r="J37" t="n">
-        <v>169832.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>17760.8</v>
-      </c>
-      <c r="L37" t="n">
-        <v>72132.70000000001</v>
-      </c>
-      <c r="M37" t="n">
-        <v>79939.29999999999</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2073,103 +1621,67 @@
       <c r="I38" t="n">
         <v>62905.4</v>
       </c>
-      <c r="J38" t="n">
-        <v>161760.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7584.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>91270.60000000001</v>
-      </c>
-      <c r="M38" t="n">
-        <v>62905.4</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>179988</v>
+        <v>188607.2</v>
       </c>
       <c r="C39" t="n">
-        <v>341748.6</v>
+        <v>530355.7</v>
       </c>
       <c r="D39" t="n">
-        <v>12221</v>
+        <v>17859.6</v>
       </c>
       <c r="E39" t="n">
-        <v>19805.4</v>
+        <v>37665.1</v>
       </c>
       <c r="F39" t="n">
-        <v>92941.2</v>
+        <v>94525.2</v>
       </c>
       <c r="G39" t="n">
-        <v>184211.8</v>
+        <v>278737</v>
       </c>
       <c r="H39" t="n">
-        <v>74825.89999999999</v>
+        <v>76222.3</v>
       </c>
       <c r="I39" t="n">
-        <v>137731.3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>179988.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>12220.9</v>
-      </c>
-      <c r="L39" t="n">
-        <v>92941.19999999998</v>
-      </c>
-      <c r="M39" t="n">
-        <v>74825.89999999999</v>
+        <v>213953.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188607.2</v>
+        <v>179988</v>
       </c>
       <c r="C40" t="n">
-        <v>530355.7</v>
+        <v>341748.6</v>
       </c>
       <c r="D40" t="n">
-        <v>17859.6</v>
+        <v>12221</v>
       </c>
       <c r="E40" t="n">
-        <v>37665.1</v>
+        <v>19805.4</v>
       </c>
       <c r="F40" t="n">
-        <v>94525.2</v>
+        <v>92941.2</v>
       </c>
       <c r="G40" t="n">
-        <v>278737</v>
+        <v>184211.8</v>
       </c>
       <c r="H40" t="n">
-        <v>76222.3</v>
+        <v>74825.89999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>213953.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>188607.1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>17859.7</v>
-      </c>
-      <c r="L40" t="n">
-        <v>94525.20000000001</v>
-      </c>
-      <c r="M40" t="n">
-        <v>76222.30000000002</v>
+        <v>137731.3</v>
       </c>
     </row>
     <row r="41">
@@ -2202,18 +1714,6 @@
       <c r="I41" t="n">
         <v>298307.8</v>
       </c>
-      <c r="J41" t="n">
-        <v>205680.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>22003.3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>99323.29999999999</v>
-      </c>
-      <c r="M41" t="n">
-        <v>84354.19999999998</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2245,103 +1745,67 @@
       <c r="I42" t="n">
         <v>66747.5</v>
       </c>
-      <c r="J42" t="n">
-        <v>173159.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7815.1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>98597</v>
-      </c>
-      <c r="M42" t="n">
-        <v>66747.5</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>192594.3</v>
+        <v>201648.3</v>
       </c>
       <c r="C43" t="n">
-        <v>365753.9</v>
+        <v>567402.2</v>
       </c>
       <c r="D43" t="n">
-        <v>12683.9</v>
+        <v>18558.5</v>
       </c>
       <c r="E43" t="n">
-        <v>20499</v>
+        <v>39057.5</v>
       </c>
       <c r="F43" t="n">
-        <v>100426.7</v>
+        <v>102459.1</v>
       </c>
       <c r="G43" t="n">
-        <v>199023.6</v>
+        <v>301482.7</v>
       </c>
       <c r="H43" t="n">
-        <v>79483.8</v>
+        <v>80630.8</v>
       </c>
       <c r="I43" t="n">
-        <v>146231.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>192594.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>12683.9</v>
-      </c>
-      <c r="L43" t="n">
-        <v>100426.6</v>
-      </c>
-      <c r="M43" t="n">
-        <v>79483.79999999999</v>
+        <v>226862.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201648.3</v>
+        <v>192594.3</v>
       </c>
       <c r="C44" t="n">
-        <v>567402.2</v>
+        <v>365753.9</v>
       </c>
       <c r="D44" t="n">
-        <v>18558.5</v>
+        <v>12683.9</v>
       </c>
       <c r="E44" t="n">
-        <v>39057.5</v>
+        <v>20499</v>
       </c>
       <c r="F44" t="n">
-        <v>102459.1</v>
+        <v>100426.7</v>
       </c>
       <c r="G44" t="n">
-        <v>301482.7</v>
+        <v>199023.6</v>
       </c>
       <c r="H44" t="n">
-        <v>80630.8</v>
+        <v>79483.8</v>
       </c>
       <c r="I44" t="n">
-        <v>226862.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>201648.2999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>18558.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>102459.1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>80630.80000000002</v>
+        <v>146231.3</v>
       </c>
     </row>
     <row r="45">
@@ -2374,18 +1838,6 @@
       <c r="I45" t="n">
         <v>315813.4</v>
       </c>
-      <c r="J45" t="n">
-        <v>219768.2000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>22974.5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>107842.3</v>
-      </c>
-      <c r="M45" t="n">
-        <v>88951.30000000002</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2417,103 +1869,67 @@
       <c r="I46" t="n">
         <v>70884.60000000001</v>
       </c>
-      <c r="J46" t="n">
-        <v>185190</v>
-      </c>
-      <c r="K46" t="n">
-        <v>8065</v>
-      </c>
-      <c r="L46" t="n">
-        <v>106240.4</v>
-      </c>
-      <c r="M46" t="n">
-        <v>70884.60000000001</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>205905.5</v>
+        <v>215098.8</v>
       </c>
       <c r="C47" t="n">
-        <v>391095.5</v>
+        <v>606194.4</v>
       </c>
       <c r="D47" t="n">
-        <v>13110.2</v>
+        <v>19228.5</v>
       </c>
       <c r="E47" t="n">
-        <v>21175.2</v>
+        <v>40403.7</v>
       </c>
       <c r="F47" t="n">
-        <v>108584</v>
+        <v>110969</v>
       </c>
       <c r="G47" t="n">
-        <v>214824.4</v>
+        <v>325793.4</v>
       </c>
       <c r="H47" t="n">
-        <v>84211.3</v>
+        <v>84901.39999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>155095.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>205905.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>13110.2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>108584</v>
-      </c>
-      <c r="M47" t="n">
-        <v>84211.29999999999</v>
+        <v>239997.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>215098.8</v>
+        <v>205905.5</v>
       </c>
       <c r="C48" t="n">
-        <v>606194.4</v>
+        <v>391095.5</v>
       </c>
       <c r="D48" t="n">
-        <v>19228.5</v>
+        <v>13110.2</v>
       </c>
       <c r="E48" t="n">
-        <v>40403.7</v>
+        <v>21175.2</v>
       </c>
       <c r="F48" t="n">
-        <v>110969</v>
+        <v>108584</v>
       </c>
       <c r="G48" t="n">
-        <v>325793.4</v>
+        <v>214824.4</v>
       </c>
       <c r="H48" t="n">
-        <v>84901.39999999999</v>
+        <v>84211.3</v>
       </c>
       <c r="I48" t="n">
-        <v>239997.3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>215098.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>19228.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>110969</v>
-      </c>
-      <c r="M48" t="n">
-        <v>84901.39999999999</v>
+        <v>155095.9</v>
       </c>
     </row>
     <row r="49">
@@ -2546,18 +1962,6 @@
       <c r="I49" t="n">
         <v>334106.6</v>
       </c>
-      <c r="J49" t="n">
-        <v>234108.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>23788.8</v>
-      </c>
-      <c r="L49" t="n">
-        <v>116210.1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>94109.29999999999</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2589,103 +1993,67 @@
       <c r="I50" t="n">
         <v>74610.3</v>
       </c>
-      <c r="J50" t="n">
-        <v>196802.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>8281.799999999999</v>
-      </c>
-      <c r="L50" t="n">
-        <v>113910.7</v>
-      </c>
-      <c r="M50" t="n">
-        <v>74610.3</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>218190.6</v>
+        <v>227683.6</v>
       </c>
       <c r="C51" t="n">
-        <v>414993.4</v>
+        <v>642677</v>
       </c>
       <c r="D51" t="n">
-        <v>13540.5</v>
+        <v>19756.9</v>
       </c>
       <c r="E51" t="n">
-        <v>21822.4</v>
+        <v>41579.2</v>
       </c>
       <c r="F51" t="n">
-        <v>116442.7</v>
+        <v>119181</v>
       </c>
       <c r="G51" t="n">
-        <v>230353.4</v>
+        <v>349534.3</v>
       </c>
       <c r="H51" t="n">
-        <v>88207.3</v>
+        <v>88745.8</v>
       </c>
       <c r="I51" t="n">
-        <v>162817.7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>218190.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>13540.6</v>
-      </c>
-      <c r="L51" t="n">
-        <v>116442.7</v>
-      </c>
-      <c r="M51" t="n">
-        <v>88207.40000000001</v>
+        <v>251563.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>227683.6</v>
+        <v>218190.6</v>
       </c>
       <c r="C52" t="n">
-        <v>642677</v>
+        <v>414993.4</v>
       </c>
       <c r="D52" t="n">
-        <v>19756.9</v>
+        <v>13540.5</v>
       </c>
       <c r="E52" t="n">
-        <v>41579.2</v>
+        <v>21822.4</v>
       </c>
       <c r="F52" t="n">
-        <v>119181</v>
+        <v>116442.7</v>
       </c>
       <c r="G52" t="n">
-        <v>349534.3</v>
+        <v>230353.4</v>
       </c>
       <c r="H52" t="n">
-        <v>88745.8</v>
+        <v>88207.3</v>
       </c>
       <c r="I52" t="n">
-        <v>251563.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>227683.6</v>
-      </c>
-      <c r="K52" t="n">
-        <v>19756.8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>119180.9</v>
-      </c>
-      <c r="M52" t="n">
-        <v>88745.79999999999</v>
+        <v>162817.7</v>
       </c>
     </row>
     <row r="53">
@@ -2718,18 +2086,6 @@
       <c r="I53" t="n">
         <v>350393</v>
       </c>
-      <c r="J53" t="n">
-        <v>247627.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>24588.40000000001</v>
-      </c>
-      <c r="L53" t="n">
-        <v>124209.9</v>
-      </c>
-      <c r="M53" t="n">
-        <v>98829.5</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2761,103 +2117,67 @@
       <c r="I54" t="n">
         <v>67368.3</v>
       </c>
-      <c r="J54" t="n">
-        <v>183177.8</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8026.2</v>
-      </c>
-      <c r="L54" t="n">
-        <v>107783.3</v>
-      </c>
-      <c r="M54" t="n">
-        <v>67368.3</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>224846.8</v>
+        <v>238702.1</v>
       </c>
       <c r="C55" t="n">
-        <v>408024.6</v>
+        <v>646726.6</v>
       </c>
       <c r="D55" t="n">
-        <v>14014.4</v>
+        <v>20561.5</v>
       </c>
       <c r="E55" t="n">
-        <v>22040.6</v>
+        <v>42602.1</v>
       </c>
       <c r="F55" t="n">
-        <v>118570.1</v>
+        <v>124168.4</v>
       </c>
       <c r="G55" t="n">
-        <v>226353.4</v>
+        <v>350521.8</v>
       </c>
       <c r="H55" t="n">
-        <v>92262.2</v>
+        <v>93972.2</v>
       </c>
       <c r="I55" t="n">
-        <v>159630.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>224846.8</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14014.4</v>
-      </c>
-      <c r="L55" t="n">
-        <v>118570.1</v>
-      </c>
-      <c r="M55" t="n">
-        <v>92262.3</v>
+        <v>253602.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>238702.1</v>
+        <v>224846.8</v>
       </c>
       <c r="C56" t="n">
-        <v>646726.6</v>
+        <v>408024.6</v>
       </c>
       <c r="D56" t="n">
-        <v>20561.5</v>
+        <v>14014.4</v>
       </c>
       <c r="E56" t="n">
-        <v>42602.1</v>
+        <v>22040.6</v>
       </c>
       <c r="F56" t="n">
-        <v>124168.4</v>
+        <v>118570.1</v>
       </c>
       <c r="G56" t="n">
-        <v>350521.8</v>
+        <v>226353.4</v>
       </c>
       <c r="H56" t="n">
-        <v>93972.2</v>
+        <v>92262.2</v>
       </c>
       <c r="I56" t="n">
-        <v>253602.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>238702</v>
-      </c>
-      <c r="K56" t="n">
-        <v>20561.5</v>
-      </c>
-      <c r="L56" t="n">
-        <v>124168.4</v>
-      </c>
-      <c r="M56" t="n">
-        <v>93972.10000000001</v>
+        <v>159630.6</v>
       </c>
     </row>
     <row r="57">
@@ -2890,18 +2210,6 @@
       <c r="I57" t="n">
         <v>359027.6</v>
       </c>
-      <c r="J57" t="n">
-        <v>263509</v>
-      </c>
-      <c r="K57" t="n">
-        <v>25637.3</v>
-      </c>
-      <c r="L57" t="n">
-        <v>132446.8</v>
-      </c>
-      <c r="M57" t="n">
-        <v>105424.9</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2910,126 +2218,90 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>244678.9</v>
+        <v>245513.7</v>
       </c>
       <c r="C58" t="n">
-        <v>244678.9</v>
+        <v>245513.7</v>
       </c>
       <c r="D58" t="n">
-        <v>10337.6</v>
+        <v>10335.9</v>
       </c>
       <c r="E58" t="n">
-        <v>10337.6</v>
+        <v>10335.9</v>
       </c>
       <c r="F58" t="n">
-        <v>143162.1</v>
+        <v>143579.6</v>
       </c>
       <c r="G58" t="n">
-        <v>143162.1</v>
+        <v>143579.6</v>
       </c>
       <c r="H58" t="n">
-        <v>91179.2</v>
+        <v>91598.2</v>
       </c>
       <c r="I58" t="n">
-        <v>91179.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>244678.9</v>
-      </c>
-      <c r="K58" t="n">
-        <v>10337.6</v>
-      </c>
-      <c r="L58" t="n">
-        <v>143162.1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>91179.2</v>
+        <v>91598.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>267700.7</v>
+        <v>278521</v>
       </c>
       <c r="C59" t="n">
-        <v>512379.6</v>
+        <v>792516.6</v>
       </c>
       <c r="D59" t="n">
-        <v>17204.4</v>
+        <v>24821.7</v>
       </c>
       <c r="E59" t="n">
-        <v>27542</v>
+        <v>52364.4</v>
       </c>
       <c r="F59" t="n">
-        <v>146637.5</v>
+        <v>149958.2</v>
       </c>
       <c r="G59" t="n">
-        <v>289799.6</v>
+        <v>440553.5</v>
       </c>
       <c r="H59" t="n">
-        <v>103858.8</v>
+        <v>103741</v>
       </c>
       <c r="I59" t="n">
-        <v>195038</v>
-      </c>
-      <c r="J59" t="n">
-        <v>267700.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>17204.4</v>
-      </c>
-      <c r="L59" t="n">
-        <v>146637.5</v>
-      </c>
-      <c r="M59" t="n">
-        <v>103858.8</v>
+        <v>299598.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>277688.8</v>
+        <v>268481.9</v>
       </c>
       <c r="C60" t="n">
-        <v>790068.4</v>
+        <v>513995.6</v>
       </c>
       <c r="D60" t="n">
-        <v>24814.3</v>
+        <v>17206.7</v>
       </c>
       <c r="E60" t="n">
-        <v>52356.3</v>
+        <v>27542.6</v>
       </c>
       <c r="F60" t="n">
-        <v>149524.1</v>
+        <v>147015.8</v>
       </c>
       <c r="G60" t="n">
-        <v>439323.7</v>
+        <v>290595.3</v>
       </c>
       <c r="H60" t="n">
-        <v>103350.4</v>
+        <v>104259.4</v>
       </c>
       <c r="I60" t="n">
-        <v>298388.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>277688.8</v>
-      </c>
-      <c r="K60" t="n">
-        <v>24814.3</v>
-      </c>
-      <c r="L60" t="n">
-        <v>149524.1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>103350.3</v>
+        <v>195857.6</v>
       </c>
     </row>
     <row r="61">
@@ -3039,40 +2311,28 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>305702.7</v>
+        <v>306681.3</v>
       </c>
       <c r="C61" t="n">
-        <v>1095771.2</v>
+        <v>1099197.9</v>
       </c>
       <c r="D61" t="n">
-        <v>31176.7</v>
+        <v>31186.3</v>
       </c>
       <c r="E61" t="n">
-        <v>83533</v>
+        <v>83550.60000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>157800.6</v>
+        <v>158260</v>
       </c>
       <c r="G61" t="n">
-        <v>597124.4</v>
+        <v>598813.5</v>
       </c>
       <c r="H61" t="n">
-        <v>116725.4</v>
+        <v>117235.1</v>
       </c>
       <c r="I61" t="n">
-        <v>415113.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>305702.7999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>31176.7</v>
-      </c>
-      <c r="L61" t="n">
-        <v>157800.7</v>
-      </c>
-      <c r="M61" t="n">
-        <v>116725.5</v>
+        <v>416833.7</v>
       </c>
     </row>
   </sheetData>
